--- a/OrgHRM-Job Titles.xlsx
+++ b/OrgHRM-Job Titles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://humgedu-my.sharepoint.com/personal/2121050045_student_humg_edu_vn/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://humgedu-my.sharepoint.com/personal/2121050045_student_humg_edu_vn/Documents/Desktop/TC_Job Titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{334FCCF2-C785-4856-9053-73067200488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{334FCCF2-C785-4856-9053-73067200488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6319881-3F79-4B1B-8C52-E044AE643380}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F5D44DF3-B410-4DBA-8A7C-25E1A3E28752}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="209">
   <si>
     <t>?</t>
   </si>
@@ -599,10 +599,6 @@
     <t>UI-04</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>Check the tab order</t>
   </si>
   <si>
@@ -665,13 +661,55 @@
   </si>
   <si>
     <t>Condition ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify Add Job Titles</t>
+  </si>
+  <si>
+    <t>Verify Update "Records Found"  Actions</t>
+  </si>
+  <si>
+    <t>Verify Add Job Titles</t>
+  </si>
+  <si>
+    <t>Use Ctr V img ALL input fields</t>
+  </si>
+  <si>
+    <t>Notification  red unexpected error or nothing is entered</t>
+  </si>
+  <si>
+    <t>TC-53</t>
+  </si>
+  <si>
+    <t>Verify Delete "Records Found"  Actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify display interface on small(mobile) or lage resolution screen </t>
+  </si>
+  <si>
+    <t>1. Click F12 or inspect
+2.Collect, zoom size</t>
+  </si>
+  <si>
+    <t>Elements are displayed clearly, without overflow or overlap. Writing is clear and easy to read.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click tab and watch </t>
+  </si>
+  <si>
+    <t>Make sure that the cursor moves in
+ the appropriate tab order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,13 +759,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -742,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -789,6 +839,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,6 +856,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1123,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9AAA0F-ED3D-444C-811B-536C31FB7721}">
-  <dimension ref="A1:Z333"/>
+  <dimension ref="A1:Z334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1180,57 +1236,57 @@
     </row>
     <row r="4" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="J4" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="K4" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="L4" s="21" t="s">
         <v>184</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="37" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4" t="s">
@@ -1249,10 +1305,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="s">
@@ -1265,24 +1321,26 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="4" t="s">
-        <v>162</v>
+      <c r="F7" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="74" x14ac:dyDescent="0.45">
@@ -1426,7 +1484,7 @@
         <v>153</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -1458,18 +1516,26 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" ht="74" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="92.5" x14ac:dyDescent="0.45">
@@ -1809,7 +1875,7 @@
         <v>102</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="4" t="s">
@@ -1835,7 +1901,7 @@
         <v>99</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="4" t="s">
@@ -1861,7 +1927,7 @@
         <v>96</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4" t="s">
@@ -1891,7 +1957,7 @@
         <v>94</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
@@ -1917,7 +1983,7 @@
         <v>91</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="4" t="s">
@@ -1943,7 +2009,7 @@
         <v>88</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="4" t="s">
@@ -1969,7 +2035,7 @@
         <v>86</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="4" t="s">
@@ -1995,7 +2061,7 @@
         <v>83</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4" t="s">
@@ -2023,7 +2089,7 @@
         <v>80</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="4" t="s">
@@ -2051,7 +2117,7 @@
         <v>77</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="4" t="s">
@@ -2079,7 +2145,7 @@
         <v>75</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="4" t="s">
@@ -2107,7 +2173,7 @@
         <v>72</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="4" t="s">
@@ -2135,7 +2201,9 @@
       <c r="C45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4"/>
       <c r="G45" s="2"/>
@@ -2159,7 +2227,7 @@
         <v>67</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4" t="s">
@@ -2188,7 +2256,7 @@
         <v>64</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4" t="s">
@@ -2219,7 +2287,7 @@
         <v>62</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4" t="s">
@@ -2248,7 +2316,7 @@
         <v>60</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4" t="s">
@@ -2277,7 +2345,7 @@
         <v>57</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4" t="s">
@@ -2304,7 +2372,7 @@
         <v>54</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4" t="s">
@@ -2333,7 +2401,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4" t="s">
@@ -2362,7 +2430,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4" t="s">
@@ -2393,7 +2461,7 @@
         <v>44</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4" t="s">
@@ -2415,22 +2483,22 @@
       <c r="T54" s="4"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="74" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:26" ht="37" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="4" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>11</v>
@@ -2444,41 +2512,36 @@
       <c r="T55" s="4"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:26" ht="74" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="4"/>
       <c r="S56" s="2"/>
       <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="1:26" ht="111" x14ac:dyDescent="0.45">
+      <c r="U56" s="2"/>
+    </row>
+    <row r="57" spans="1:26" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
@@ -2489,16 +2552,14 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G57" s="2"/>
       <c r="H57" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>32</v>
+      <c r="I57" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J57" s="1"/>
       <c r="O57" s="2"/>
@@ -2510,11 +2571,11 @@
       <c r="U57" s="4"/>
       <c r="V57" s="2"/>
       <c r="W57" s="4"/>
-      <c r="X57" s="5"/>
+      <c r="X57" s="2"/>
       <c r="Y57" s="4"/>
-      <c r="Z57" s="6"/>
-    </row>
-    <row r="58" spans="1:26" ht="148" x14ac:dyDescent="0.45">
+      <c r="Z57" s="2"/>
+    </row>
+    <row r="58" spans="1:26" ht="111" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
@@ -2525,16 +2586,18 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -2546,9 +2609,9 @@
       <c r="W58" s="4"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="4"/>
-      <c r="Z58" s="2"/>
-    </row>
-    <row r="59" spans="1:26" ht="185" x14ac:dyDescent="0.45">
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="1:26" ht="148" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
@@ -2559,19 +2622,17 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H59" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="4"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="3"/>
+      <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="4"/>
@@ -2582,9 +2643,9 @@
       <c r="W59" s="4"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-    </row>
-    <row r="60" spans="1:26" ht="111" x14ac:dyDescent="0.45">
+      <c r="Z59" s="2"/>
+    </row>
+    <row r="60" spans="1:26" ht="185" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
@@ -2595,26 +2656,32 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G60" s="5"/>
       <c r="H60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I60" s="4"/>
       <c r="J60" s="1"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="4"/>
       <c r="N60" s="2"/>
       <c r="O60" s="4"/>
       <c r="P60" s="2"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-    </row>
-    <row r="61" spans="1:26" ht="148" x14ac:dyDescent="0.45">
+      <c r="Q60" s="2"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+    </row>
+    <row r="61" spans="1:26" ht="111" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
@@ -2625,27 +2692,26 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="1"/>
       <c r="N61" s="2"/>
       <c r="O61" s="4"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="4"/>
+      <c r="S61" s="11"/>
       <c r="T61" s="2"/>
-      <c r="U61" s="6"/>
-    </row>
-    <row r="62" spans="1:26" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="U61" s="2"/>
+    </row>
+    <row r="62" spans="1:26" ht="148" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
@@ -2656,14 +2722,14 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="8"/>
@@ -2683,11 +2749,11 @@
         <v>15</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="4" t="s">
@@ -2707,29 +2773,28 @@
       <c r="T63" s="2"/>
       <c r="U63" s="6"/>
     </row>
-    <row r="64" spans="1:26" ht="111" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:26" ht="92.5" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
       <c r="N64" s="2"/>
       <c r="O64" s="4"/>
       <c r="P64" s="2"/>
@@ -2739,20 +2804,29 @@
       <c r="T64" s="2"/>
       <c r="U64" s="6"/>
     </row>
-    <row r="65" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" ht="111" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="9"/>
+      <c r="H65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="J65" s="3"/>
       <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
       <c r="N65" s="2"/>
       <c r="O65" s="4"/>
       <c r="P65" s="2"/>
@@ -2814,19 +2888,14 @@
       <c r="C68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="F68" s="4"/>
       <c r="G68" s="2"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="1"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="8"/>
       <c r="N68" s="2"/>
       <c r="O68" s="4"/>
       <c r="P68" s="2"/>
@@ -2834,18 +2903,26 @@
       <c r="R68" s="2"/>
       <c r="S68" s="4"/>
       <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
+      <c r="U68" s="6"/>
     </row>
     <row r="69" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="4"/>
+      <c r="C69" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="G69" s="2"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="2"/>
+      <c r="I69" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="J69" s="1"/>
       <c r="N69" s="2"/>
       <c r="O69" s="4"/>
@@ -2854,6 +2931,7 @@
       <c r="R69" s="2"/>
       <c r="S69" s="4"/>
       <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
     </row>
     <row r="70" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
@@ -2965,9 +3043,9 @@
       <c r="O75" s="4"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="4"/>
-      <c r="R75" s="5"/>
+      <c r="R75" s="2"/>
       <c r="S75" s="4"/>
-      <c r="T75" s="6"/>
+      <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
@@ -2984,9 +3062,9 @@
       <c r="O76" s="4"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="4"/>
-      <c r="R76" s="2"/>
+      <c r="R76" s="5"/>
       <c r="S76" s="4"/>
-      <c r="T76" s="2"/>
+      <c r="T76" s="6"/>
     </row>
     <row r="77" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
@@ -3005,7 +3083,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="2"/>
       <c r="S77" s="4"/>
-      <c r="T77" s="6"/>
+      <c r="T77" s="2"/>
     </row>
     <row r="78" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
@@ -3043,7 +3121,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="2"/>
       <c r="S79" s="4"/>
-      <c r="T79" s="2"/>
+      <c r="T79" s="6"/>
     </row>
     <row r="80" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
@@ -3060,9 +3138,9 @@
       <c r="O80" s="4"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="4"/>
-      <c r="R80" s="5"/>
+      <c r="R80" s="2"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="6"/>
+      <c r="T80" s="2"/>
     </row>
     <row r="81" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
@@ -3081,7 +3159,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="5"/>
       <c r="S81" s="4"/>
-      <c r="T81" s="2"/>
+      <c r="T81" s="6"/>
     </row>
     <row r="82" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
@@ -3105,7 +3183,7 @@
     <row r="83" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="4"/>
       <c r="E83" s="2"/>
       <c r="F83" s="4"/>
@@ -3117,7 +3195,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="4"/>
-      <c r="R83" s="2"/>
+      <c r="R83" s="5"/>
       <c r="S83" s="4"/>
       <c r="T83" s="2"/>
     </row>
@@ -3151,6 +3229,13 @@
       <c r="H85" s="4"/>
       <c r="I85" s="2"/>
       <c r="J85" s="1"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="2"/>
     </row>
     <row r="86" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
@@ -3372,7 +3457,7 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="4"/>
       <c r="E104" s="2"/>
       <c r="F104" s="4"/>
       <c r="G104" s="2"/>
@@ -3424,7 +3509,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="4"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
+      <c r="H108" s="4"/>
       <c r="I108" s="2"/>
       <c r="J108" s="1"/>
     </row>
@@ -3984,11 +4069,11 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="1"/>
     </row>
@@ -4082,7 +4167,7 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="F163" s="3"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="2"/>
@@ -4400,7 +4485,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4409,7 +4494,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
+      <c r="I190" s="2"/>
       <c r="J190" s="1"/>
     </row>
     <row r="191" spans="1:10" ht="16" x14ac:dyDescent="0.4">
@@ -6128,7 +6213,20 @@
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
     </row>
+    <row r="334" spans="1:10" ht="16" x14ac:dyDescent="0.4">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1"/>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/OrgHRM-Job Titles.xlsx
+++ b/OrgHRM-Job Titles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://humgedu-my.sharepoint.com/personal/2121050045_student_humg_edu_vn/Documents/Desktop/TC_Job Titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{334FCCF2-C785-4856-9053-73067200488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6319881-3F79-4B1B-8C52-E044AE643380}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{334FCCF2-C785-4856-9053-73067200488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{353A2019-F0D0-41AD-AA13-8DD2CBC328CA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F5D44DF3-B410-4DBA-8A7C-25E1A3E28752}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="214">
   <si>
     <t>?</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>TC-46</t>
-  </si>
-  <si>
-    <t>Notes are not displayed in the section"Job Description"</t>
   </si>
   <si>
     <t>Saved successfully and included "Job Description"</t>
@@ -179,9 +176,6 @@
 3. Then turn on wifi </t>
   </si>
   <si>
-    <t>Add Job Titles</t>
-  </si>
-  <si>
     <t>TC-39</t>
   </si>
   <si>
@@ -508,9 +502,6 @@
     <t xml:space="preserve">1.Open OrangeHRM                                                               2.Login with usename and password available successfully                                                                         3. Click "admin" - Click "Job" - Click " Job Titles"                              </t>
   </si>
   <si>
-    <t xml:space="preserve"> Open job titles</t>
-  </si>
-  <si>
     <t>TC-01</t>
   </si>
   <si>
@@ -624,21 +615,9 @@
     <t>UI</t>
   </si>
   <si>
-    <t>FireFox</t>
-  </si>
-  <si>
-    <t>IE11</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>Stauts</t>
-  </si>
-  <si>
-    <t>Test results</t>
-  </si>
-  <si>
     <t>Expected result</t>
   </si>
   <si>
@@ -663,13 +642,7 @@
     <t>Condition ID</t>
   </si>
   <si>
-    <t xml:space="preserve"> Verify Add Job Titles</t>
-  </si>
-  <si>
     <t>Verify Update "Records Found"  Actions</t>
-  </si>
-  <si>
-    <t>Verify Add Job Titles</t>
   </si>
   <si>
     <t>Use Ctr V img ALL input fields</t>
@@ -703,6 +676,54 @@
   <si>
     <t>Make sure that the cursor moves in
  the appropriate tab order</t>
+  </si>
+  <si>
+    <t>Check Footer link page layout Job Titles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to Job Titles footer page for general observation
+Click link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Layout resembles design
+Switch to the correct link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The title "Job Titles" with the button Add is misaligned</t>
+  </si>
+  <si>
+    <t>Priotity</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Medium</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that Open job titles 
+success</t>
+  </si>
+  <si>
+    <t>Verify that Add Job Titles success</t>
+  </si>
+  <si>
+    <t>Verify that click Check box "Job Titles" success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify error when Incorrectly entered fields Add Job Titles </t>
   </si>
 </sst>
 </file>
@@ -792,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -841,6 +862,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9AAA0F-ED3D-444C-811B-536C31FB7721}">
   <dimension ref="A1:Z334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="56" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1195,6 +1219,7 @@
     <col min="7" max="7" width="26.453125" customWidth="1"/>
     <col min="8" max="8" width="32.54296875" customWidth="1"/>
     <col min="9" max="9" width="31.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="15.90625" customWidth="1"/>
     <col min="12" max="12" width="16.26953125" customWidth="1"/>
     <col min="13" max="13" width="11.08984375" customWidth="1"/>
@@ -1235,111 +1260,114 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>195</v>
+      <c r="A4" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>184</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="37" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="37" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -1347,21 +1375,21 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1369,21 +1397,21 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="8"/>
@@ -1395,21 +1423,21 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="8"/>
@@ -1423,21 +1451,21 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="8"/>
@@ -1447,21 +1475,21 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="8"/>
@@ -1470,43 +1498,51 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
@@ -1520,18 +1556,18 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>11</v>
@@ -1540,26 +1576,26 @@
     </row>
     <row r="17" spans="1:19" ht="92.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>11</v>
@@ -1570,20 +1606,20 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>11</v>
@@ -1596,18 +1632,18 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>11</v>
@@ -1618,18 +1654,18 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>11</v>
@@ -1640,18 +1676,18 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>11</v>
@@ -1662,18 +1698,18 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>11</v>
@@ -1684,18 +1720,18 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>11</v>
@@ -1706,31 +1742,31 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4"/>
@@ -1742,18 +1778,18 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>11</v>
@@ -1766,7 +1802,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
@@ -1779,7 +1815,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
@@ -1792,18 +1828,18 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>11</v>
@@ -1813,7 +1849,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="2"/>
@@ -1826,18 +1862,18 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>11</v>
@@ -1847,18 +1883,18 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>11</v>
@@ -1872,18 +1908,18 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>11</v>
@@ -1898,18 +1934,18 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>11</v>
@@ -1924,18 +1960,18 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>11</v>
@@ -1954,18 +1990,18 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>11</v>
@@ -1980,18 +2016,18 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>11</v>
@@ -2006,18 +2042,18 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>11</v>
@@ -2032,18 +2068,18 @@
       <c r="A39" s="1"/>
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>11</v>
@@ -2058,18 +2094,18 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>11</v>
@@ -2086,18 +2122,18 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>11</v>
@@ -2114,18 +2150,18 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>11</v>
@@ -2142,18 +2178,18 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>11</v>
@@ -2170,18 +2206,18 @@
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>11</v>
@@ -2199,10 +2235,10 @@
       <c r="A45" s="1"/>
       <c r="B45" s="4"/>
       <c r="C45" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4"/>
@@ -2221,21 +2257,21 @@
     <row r="46" spans="1:21" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>11</v>
@@ -2253,25 +2289,27 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -2284,18 +2322,18 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>11</v>
@@ -2313,23 +2351,25 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -2342,18 +2382,18 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="3"/>
@@ -2369,18 +2409,18 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>11</v>
@@ -2398,18 +2438,18 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>11</v>
@@ -2427,20 +2467,20 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>11</v>
@@ -2458,14 +2498,14 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="4" t="s">
@@ -2487,18 +2527,18 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>11</v>
@@ -2516,18 +2556,18 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>11</v>
@@ -2545,18 +2585,18 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>11</v>
@@ -2579,25 +2619,27 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -2615,20 +2657,20 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="3"/>
@@ -2649,18 +2691,18 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="1"/>
@@ -2685,18 +2727,18 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>11</v>
@@ -2722,14 +2764,14 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="8"/>
@@ -2909,7 +2951,7 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>1</v>
